--- a/segunda_parte/lagrange.xlsx
+++ b/segunda_parte/lagrange.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezequiel\Desktop\UP\Calculo numerico\Codigo\segunda_parte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFC3B6E-77E9-4E69-8560-0708D8D97C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EAAE91-F91E-4E69-A94A-7A614627B969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{1BE30968-4EEA-4C33-B293-E63EA5865C2A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{1BE30968-4EEA-4C33-B293-E63EA5865C2A}"/>
   </bookViews>
   <sheets>
     <sheet name="lagrange grado 2" sheetId="1" r:id="rId1"/>
     <sheet name="lagrange grado 3" sheetId="2" r:id="rId2"/>
+    <sheet name="Interpolacion inversa" sheetId="3" r:id="rId3"/>
+    <sheet name="simu_lagrange_grado2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>x</t>
   </si>
@@ -81,9 +83,6 @@
     <t>y2</t>
   </si>
   <si>
-    <t>p2(0,5)=</t>
-  </si>
-  <si>
     <t>x3</t>
   </si>
   <si>
@@ -109,6 +108,54 @@
   </si>
   <si>
     <t>p3(1,235)=</t>
+  </si>
+  <si>
+    <t>f(x)</t>
+  </si>
+  <si>
+    <t>f(x)=x^3 - 15x + 4</t>
+  </si>
+  <si>
+    <t>x  nodo de interpolacion)</t>
+  </si>
+  <si>
+    <t>Usando newton</t>
+  </si>
+  <si>
+    <t>g(y)</t>
+  </si>
+  <si>
+    <t>Estamos buscando el valor de x cuando y es 0</t>
+  </si>
+  <si>
+    <t>y=</t>
+  </si>
+  <si>
+    <t>P(0)=</t>
+  </si>
+  <si>
+    <t>Chequeando el resultado:</t>
+  </si>
+  <si>
+    <t>f(0,26792758)=</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>Como x es 2,6 elijo 2,25 - 2,5 - 2,75</t>
+  </si>
+  <si>
+    <t>p2(2,6)=</t>
+  </si>
+  <si>
+    <t>Generalizacion=</t>
+  </si>
+  <si>
+    <t>P2(X)=</t>
   </si>
 </sst>
 </file>
@@ -124,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +181,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,12 +233,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,127 +576,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0B6ED9-1AAE-436A-9F3E-0F0B6603E49F}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <f>SUMPRODUCT(B9:D9,B11:D11)</f>
-        <v>0.20833333333333331</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <f>PRODUCT(B6-B3,B6-B4)/PRODUCT(B2-B3,B2-B4)</f>
-        <v>-4.1666666666666664E-2</v>
-      </c>
-      <c r="C9" s="1">
-        <f>PRODUCT(B6-B2,B6-B4)/PRODUCT(B3-B2,B3-B4)</f>
-        <v>0.625</v>
-      </c>
-      <c r="D9" s="1">
-        <f>PRODUCT(B6-B2,B6-B3)/PRODUCT(B4-B2,B4-B3)</f>
-        <v>0.41666666666666669</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -643,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7A305D-7F6C-47E8-8E3C-5804C54BEF96}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,10 +604,10 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -696,7 +645,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>1.5</v>
@@ -715,19 +664,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9">
         <f>SUMPRODUCT(B10:E10,B12:E12)</f>
@@ -763,7 +712,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -778,6 +727,400 @@
       </c>
       <c r="E12" s="1">
         <v>14.101000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C09E392-2F8A-49D9-93AF-044C7726CF58}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.008</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.008</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-0.47299999999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <f>(B3-B2)/(A3-A2)</f>
+        <v>-14.810000000000002</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-0.47299999999999998</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="6">
+        <f>(H3-H2)/(G3-G2)</f>
+        <v>-6.7521944632005393E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1.9359999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <f>(B4-B3)/(A4-A3)</f>
+        <v>-14.629999999999995</v>
+      </c>
+      <c r="D4" s="1">
+        <f>(C4-C3)/(A4-A2)</f>
+        <v>0.90000000000003411</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-1.9359999999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="1">
+        <f>(H4-H3)/(G4-G3)</f>
+        <v>-6.8352699931647318E-2</v>
+      </c>
+      <c r="J4" s="6">
+        <f>(I4-I3)/(G4-G2)</f>
+        <v>2.8218590341097993E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7">
+        <f>SUM(I7:I9)</f>
+        <v>0.26792757846528953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f>H2</f>
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <f>H7*G7</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f>(G6-G2)</f>
+        <v>-1.008</v>
+      </c>
+      <c r="H8">
+        <f>I3</f>
+        <v>-6.7521944632005393E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I9" si="0">H8*G8</f>
+        <v>6.8062120189061437E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f>G8*(G6-G3)</f>
+        <v>-0.47678399999999999</v>
+      </c>
+      <c r="H9">
+        <f>J4</f>
+        <v>2.8218590341097993E-4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>-1.3454172377190066E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <f>L6^3-(15*L6)+4</f>
+        <v>3.1955442423248215E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058B93E4-AFAD-4CD3-801D-58BDF3B33759}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.0711000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="C5" s="1">
+        <v>16.798999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>47.911700000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="C9" s="3">
+        <v>121.4508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14">
+        <f>SUMPRODUCT(C16:E16,C18:E18)</f>
+        <v>92.936820000000012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <f>PRODUCT(C13-B8,C13-B9)/PRODUCT(B7-B8,B7-B9)</f>
+        <v>-0.12000000000000004</v>
+      </c>
+      <c r="D16">
+        <f>PRODUCT(C13-B7,C13-B9)/PRODUCT(B8-B7,B8-B9)</f>
+        <v>0.83999999999999975</v>
+      </c>
+      <c r="E16" s="1">
+        <f>PRODUCT(C13-B7,C13-B8)/PRODUCT(B9-B7,B9-B8)</f>
+        <v>0.2800000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <f>C7</f>
+        <v>47.911700000000003</v>
+      </c>
+      <c r="D18" s="1">
+        <f>C8</f>
+        <v>77</v>
+      </c>
+      <c r="E18" s="1">
+        <f>C9</f>
+        <v>121.4508</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>47.911700000000003</v>
       </c>
     </row>
   </sheetData>
